--- a/partial/sliding_window_results_window_10.xlsx
+++ b/partial/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>30.15045815484523</v>
+        <v>30.01235008239746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2304581548452305</v>
+        <v>0.09235008239745923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05311096113466823</v>
+        <v>0.00852853771881751</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>29.57760358353954</v>
+        <v>29.95737266540527</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4023964164604585</v>
+        <v>-0.02262733459473054</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1619228759802188</v>
+        <v>0.0005119962708618896</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8876133789907</v>
+        <v>30.14963340759277</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.152386621009299</v>
+        <v>0.1096334075927814</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02322168226263173</v>
+        <v>0.01201948406040494</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>29.55110988573279</v>
+        <v>30.0929012298584</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6588901142672086</v>
+        <v>-0.1170987701416095</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4341361826790551</v>
+        <v>0.0137121219686775</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>29.94462543628945</v>
+        <v>30.26950645446777</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2753745637105496</v>
+        <v>0.04950645446777457</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07583115033877554</v>
+        <v>0.002450889033969837</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>29.8816698068154</v>
+        <v>30.25530052185059</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4983301931846036</v>
+        <v>-0.1246994781494095</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2483329814394043</v>
+        <v>0.01554995985073506</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>30.53153397042876</v>
+        <v>30.50997734069824</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09153397042875966</v>
+        <v>0.06997734069824446</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008378467742453048</v>
+        <v>0.00489682821119818</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>30.37329085993156</v>
+        <v>30.38161277770996</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1067091400684426</v>
+        <v>-0.09838722229004304</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01138684057414649</v>
+        <v>0.009680045509950342</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>30.56229443542715</v>
+        <v>30.44911766052246</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1277055645728531</v>
+        <v>-0.2408823394775368</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01630871122287115</v>
+        <v>0.05802430147217128</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>30.40295983610252</v>
+        <v>30.4470043182373</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.347040163897482</v>
+        <v>-0.3029956817626953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1204368753579912</v>
+        <v>0.09180638316684053</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>30.6690536612905</v>
+        <v>30.63541984558105</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2709463387094964</v>
+        <v>-0.304580154418943</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07341191846008112</v>
+        <v>0.09276907046586719</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.95</v>
       </c>
       <c r="C13" t="n">
-        <v>30.87308474573936</v>
+        <v>30.7780818939209</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07691525426064416</v>
+        <v>-0.1719181060791044</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00591595633797954</v>
+        <v>0.0295558351978262</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>31.02</v>
       </c>
       <c r="C14" t="n">
-        <v>31.42862978224556</v>
+        <v>31.21818351745605</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4086297822455585</v>
+        <v>0.1981835174560587</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1669782989380525</v>
+        <v>0.03927670659125591</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.12</v>
       </c>
       <c r="C15" t="n">
-        <v>31.73932379059798</v>
+        <v>31.37577629089355</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6193237905979778</v>
+        <v>0.2557762908935501</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3835619576006479</v>
+        <v>0.06542151098326197</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.28</v>
       </c>
       <c r="C16" t="n">
-        <v>31.8001027920917</v>
+        <v>31.4897289276123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5201027920916985</v>
+        <v>0.2097289276123036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2705069143415806</v>
+        <v>0.04398622307740686</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.38</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4866341557887</v>
+        <v>31.24315452575684</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1066341557887007</v>
+        <v>-0.1368454742431595</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0113708431807689</v>
+        <v>0.01872668382083523</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.58</v>
       </c>
       <c r="C18" t="n">
-        <v>31.84267344671913</v>
+        <v>31.55834007263184</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2626734467191341</v>
+        <v>-0.02165992736816236</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06899733961130976</v>
+        <v>0.0004691524535940687</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>31.82384162411077</v>
+        <v>31.96619987487793</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1738416241107714</v>
+        <v>0.316199874877924</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03022091027347074</v>
+        <v>0.0999823608728148</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.88</v>
       </c>
       <c r="C20" t="n">
-        <v>32.52588862827167</v>
+        <v>32.57534408569336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.645888628271674</v>
+        <v>0.6953440856933639</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4171721201306647</v>
+        <v>0.4835033975087402</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>32.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.42675507501861</v>
+        <v>32.38410568237305</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1467550750186106</v>
+        <v>0.1041056823730457</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02153705204371803</v>
+        <v>0.01083799310235749</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.45</v>
       </c>
       <c r="C22" t="n">
-        <v>32.48906773209526</v>
+        <v>32.5141487121582</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03906773209525483</v>
+        <v>0.06414871215820028</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001526287691066604</v>
+        <v>0.004115057271555633</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>32.68757766467187</v>
+        <v>32.70607376098633</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1624223353281309</v>
+        <v>-0.1439262390136662</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0263810150134438</v>
+        <v>0.02071476227661897</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>32.81789647584993</v>
+        <v>32.94353866577148</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08210352415007094</v>
+        <v>0.04353866577147869</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006740988677861282</v>
+        <v>0.00189561541716053</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>33.14090606419386</v>
+        <v>32.95751571655273</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04090606419386233</v>
+        <v>-0.1424842834472599</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001673306087832386</v>
+        <v>0.02030177102947911</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>33.68519413220316</v>
+        <v>33.68034744262695</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2851941322031664</v>
+        <v>0.2803474426269474</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08133569304311714</v>
+        <v>0.07859468858746958</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>33.87216588000717</v>
+        <v>33.67167282104492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1721658800071708</v>
+        <v>-0.02832717895508097</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02964109023864354</v>
+        <v>0.000802429067553182</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>33.97085561693148</v>
+        <v>33.86410903930664</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1291443830685211</v>
+        <v>-0.2358909606933537</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01667827167814891</v>
+        <v>0.05564454533683334</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>34.27075136985163</v>
+        <v>34.45993423461914</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1292486301483677</v>
+        <v>0.05993423461913494</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01670520839522955</v>
+        <v>0.003592112479381513</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>34.61143521302103</v>
+        <v>35.07357406616211</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2885647869789665</v>
+        <v>0.1735740661621037</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0832696362842163</v>
+        <v>0.03012795644404635</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>35.3</v>
       </c>
       <c r="C31" t="n">
-        <v>35.35959892399529</v>
+        <v>35.75087356567383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05959892399529565</v>
+        <v>0.450873565673831</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003552031741397028</v>
+        <v>0.2032869722234344</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.7</v>
       </c>
       <c r="C32" t="n">
-        <v>35.79080162479443</v>
+        <v>36.01235580444336</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09080162479442322</v>
+        <v>0.3123558044433565</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008244935065307213</v>
+        <v>0.09756614856945639</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>36.3</v>
       </c>
       <c r="C33" t="n">
-        <v>36.03264968725425</v>
+        <v>36.00337600708008</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2673503127457479</v>
+        <v>-0.296623992919919</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07147618972524923</v>
+        <v>0.08798579317575618</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.8</v>
       </c>
       <c r="C34" t="n">
-        <v>36.98082208978937</v>
+        <v>36.55116653442383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1808220897893733</v>
+        <v>-0.248833465576169</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03269662815579618</v>
+        <v>0.0619180935906465</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>37.3</v>
       </c>
       <c r="C35" t="n">
-        <v>37.03808174720831</v>
+        <v>37.06188583374023</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2619182527916877</v>
+        <v>-0.2381141662597628</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0686011711454504</v>
+        <v>0.05669835617358195</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>38.01083806580366</v>
+        <v>37.8508415222168</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1108380658036623</v>
+        <v>-0.04915847778320881</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01228507683109697</v>
+        <v>0.002416555937962234</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>38.5</v>
       </c>
       <c r="C37" t="n">
-        <v>38.67005654805641</v>
+        <v>38.3694953918457</v>
       </c>
       <c r="D37" t="n">
-        <v>0.170056548056408</v>
+        <v>-0.1305046081542969</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02891922953686141</v>
+        <v>0.01703145274950657</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>39.12237970160986</v>
+        <v>39.00495529174805</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2223797016098601</v>
+        <v>0.1049552917480412</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04945273168809041</v>
+        <v>0.01101561326591644</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>39.56793608028836</v>
+        <v>39.52904891967773</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1679360802883636</v>
+        <v>0.1290489196777287</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02820252706261971</v>
+        <v>0.01665362366998887</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B40" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>39.85061662806815</v>
+        <v>39.70820999145508</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.04938337193184594</v>
+        <v>-0.1917900085449276</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00243871742335903</v>
+        <v>0.03678340737766338</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>39.99719629544344</v>
+        <v>39.92831802368164</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1028037045565569</v>
+        <v>-0.1716819763183537</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01056860167055183</v>
+        <v>0.02947470099257576</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>40.14740321345568</v>
+        <v>40.23454666137695</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4525967865443263</v>
+        <v>-0.3654533386230412</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2048438511902505</v>
+        <v>0.1335561427107272</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>40.43717594502318</v>
+        <v>40.47024154663086</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4628240549768208</v>
+        <v>-0.4297584533691463</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2142061058651872</v>
+        <v>0.1846923282422407</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>41.25164687007472</v>
+        <v>41.21378707885742</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05164687007471258</v>
+        <v>0.01378707885741193</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002667399188514242</v>
+        <v>0.000190083543420495</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.5</v>
       </c>
       <c r="C45" t="n">
-        <v>41.50640795799717</v>
+        <v>41.2248649597168</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006407957997168978</v>
+        <v>-0.2751350402832031</v>
       </c>
       <c r="E45" t="n">
-        <v>4.106192569348186e-05</v>
+        <v>0.07569929039163981</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.8</v>
       </c>
       <c r="C46" t="n">
-        <v>42.16556872913132</v>
+        <v>41.653076171875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3655687291313257</v>
+        <v>-0.1469238281249972</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1336404957186925</v>
+        <v>0.0215866112709037</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>42.2</v>
       </c>
       <c r="C47" t="n">
-        <v>42.57779146628009</v>
+        <v>42.15799331665039</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3777914662800868</v>
+        <v>-0.04200668334961222</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1427263919940579</v>
+        <v>0.001764561446034588</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.7</v>
       </c>
       <c r="C48" t="n">
-        <v>43.73722680448905</v>
+        <v>43.88340759277344</v>
       </c>
       <c r="D48" t="n">
-        <v>1.037226804489052</v>
+        <v>1.183407592773435</v>
       </c>
       <c r="E48" t="n">
-        <v>1.07583944395057</v>
+        <v>1.400453530633815</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>43.7</v>
       </c>
       <c r="C49" t="n">
-        <v>44.37882933852995</v>
+        <v>44.43407821655273</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6788293385299511</v>
+        <v>0.7340782165527386</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4608092708490109</v>
+        <v>0.5388708280172494</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>44.2</v>
       </c>
       <c r="C50" t="n">
-        <v>43.9873501350492</v>
+        <v>44.31099700927734</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.212649864950798</v>
+        <v>0.1109970092773409</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04521996506359261</v>
+        <v>0.0123203360685141</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>45.6</v>
       </c>
       <c r="C51" t="n">
-        <v>44.27202124572106</v>
+        <v>44.46113967895508</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.327978754278938</v>
+        <v>-1.138860321044923</v>
       </c>
       <c r="E51" t="n">
-        <v>1.76352757181624</v>
+        <v>1.297002830850546</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.4173962968654372</v>
+        <v>-0.05531524658206166</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>7.226650934367638</v>
+        <v>5.604465680149265</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1445330186873527</v>
+        <v>0.1120893136029853</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_10.xlsx
+++ b/partial/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>30.01235008239746</v>
+        <v>29.98052787780762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09235008239745923</v>
+        <v>0.06052787780761548</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00852853771881751</v>
+        <v>0.003663623991893631</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>29.95737266540527</v>
+        <v>29.90202140808105</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02262733459473054</v>
+        <v>-0.07797859191894929</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0005119962708618896</v>
+        <v>0.006080660797662024</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>30.14963340759277</v>
+        <v>30.13464164733887</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1096334075927814</v>
+        <v>0.09464164733887515</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01201948406040494</v>
+        <v>0.008957041411016014</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0929012298584</v>
+        <v>30.09545707702637</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1170987701416095</v>
+        <v>-0.1145429229736408</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0137121219686775</v>
+        <v>0.0131200812033454</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>30.26950645446777</v>
+        <v>30.30824089050293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04950645446777457</v>
+        <v>0.08824089050293082</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002450889033969837</v>
+        <v>0.007786454756750228</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>30.25530052185059</v>
+        <v>30.31917381286621</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1246994781494095</v>
+        <v>-0.06082618713378452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01554995985073506</v>
+        <v>0.003699825041234173</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>30.50997734069824</v>
+        <v>30.56512260437012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06997734069824446</v>
+        <v>0.1251226043701195</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00489682821119818</v>
+        <v>0.01565566612436144</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>30.38161277770996</v>
+        <v>30.38464164733887</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09838722229004304</v>
+        <v>-0.09535835266113679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009680045509950342</v>
+        <v>0.009093215422245735</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>30.44911766052246</v>
+        <v>30.4595775604248</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2408823394775368</v>
+        <v>-0.230422439575193</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05802430147217128</v>
+        <v>0.05309450065978349</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4470043182373</v>
+        <v>30.5115795135498</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3029956817626953</v>
+        <v>-0.2384204864501953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09180638316684053</v>
+        <v>0.05684432835914777</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>30.63541984558105</v>
+        <v>30.66715812683105</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.304580154418943</v>
+        <v>-0.272841873168943</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09276907046586719</v>
+        <v>0.0744426877543376</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.95</v>
       </c>
       <c r="C13" t="n">
-        <v>30.7780818939209</v>
+        <v>30.7956371307373</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1719181060791044</v>
+        <v>-0.1543628692626982</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0295558351978262</v>
+        <v>0.02382789540701284</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>31.02</v>
       </c>
       <c r="C14" t="n">
-        <v>31.21818351745605</v>
+        <v>31.22818565368652</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1981835174560587</v>
+        <v>0.2081856536865274</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03927670659125591</v>
+        <v>0.04334126640088673</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.12</v>
       </c>
       <c r="C15" t="n">
-        <v>31.37577629089355</v>
+        <v>31.34670066833496</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2557762908935501</v>
+        <v>0.2267006683349564</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06542151098326197</v>
+        <v>0.0513931930235159</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.28</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4897289276123</v>
+        <v>31.43979454040527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2097289276123036</v>
+        <v>0.1597945404052723</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04398622307740686</v>
+        <v>0.0255342951433322</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.38</v>
       </c>
       <c r="C17" t="n">
-        <v>31.24315452575684</v>
+        <v>31.06734275817871</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1368454742431595</v>
+        <v>-0.3126572418212845</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01872668382083523</v>
+        <v>0.09775455086329318</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.58</v>
       </c>
       <c r="C18" t="n">
-        <v>31.55834007263184</v>
+        <v>31.44013786315918</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02165992736816236</v>
+        <v>-0.1398621368408186</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004691524535940687</v>
+        <v>0.01956141732167987</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>31.96619987487793</v>
+        <v>31.86427879333496</v>
       </c>
       <c r="D19" t="n">
-        <v>0.316199874877924</v>
+        <v>0.2142787933349553</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0999823608728148</v>
+        <v>0.04591540127308447</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.88</v>
       </c>
       <c r="C20" t="n">
-        <v>32.57534408569336</v>
+        <v>32.51804733276367</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6953440856933639</v>
+        <v>0.6380473327636764</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4835033975087402</v>
+        <v>0.4071043988468416</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>32.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.38410568237305</v>
+        <v>32.30490493774414</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1041056823730457</v>
+        <v>0.02490493774413949</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01083799310235749</v>
+        <v>0.0006202559240394637</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.45</v>
       </c>
       <c r="C22" t="n">
-        <v>32.5141487121582</v>
+        <v>32.48696517944336</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06414871215820028</v>
+        <v>0.03696517944335653</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004115057271555633</v>
+        <v>0.001366424491279548</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>32.70607376098633</v>
+        <v>32.68085861206055</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1439262390136662</v>
+        <v>-0.1691413879394474</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02071476227661897</v>
+        <v>0.02860880911408266</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>32.94353866577148</v>
+        <v>32.9460334777832</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04353866577147869</v>
+        <v>0.04603347778319744</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00189561541716053</v>
+        <v>0.002119081076816133</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>32.95751571655273</v>
+        <v>33.0185661315918</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1424842834472599</v>
+        <v>-0.08143386840819744</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02030177102947911</v>
+        <v>0.006631474923923617</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>33.68034744262695</v>
+        <v>33.67297744750977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2803474426269474</v>
+        <v>0.2729774475097599</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07859468858746958</v>
+        <v>0.07451668684894375</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>33.67167282104492</v>
+        <v>33.68117141723633</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.02832717895508097</v>
+        <v>-0.01882858276367472</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000802429067553182</v>
+        <v>0.0003545155288885486</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>33.86410903930664</v>
+        <v>33.88063430786133</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2358909606933537</v>
+        <v>-0.2193656921386662</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05564454533683334</v>
+        <v>0.04812130688747607</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>34.45993423461914</v>
+        <v>34.48127365112305</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05993423461913494</v>
+        <v>0.08127365112304119</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003592112479381513</v>
+        <v>0.006605406366869814</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>35.07357406616211</v>
+        <v>35.10482406616211</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1735740661621037</v>
+        <v>0.2048240661621037</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03012795644404635</v>
+        <v>0.04195289807917783</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>35.3</v>
       </c>
       <c r="C31" t="n">
-        <v>35.75087356567383</v>
+        <v>35.71327590942383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.450873565673831</v>
+        <v>0.413275909423831</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2032869722234344</v>
+        <v>0.1707969773100945</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.7</v>
       </c>
       <c r="C32" t="n">
-        <v>36.01235580444336</v>
+        <v>35.97349166870117</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3123558044433565</v>
+        <v>0.273491668701169</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09756614856945639</v>
+        <v>0.07479769284895001</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>36.3</v>
       </c>
       <c r="C33" t="n">
-        <v>36.00337600708008</v>
+        <v>35.9860725402832</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.296623992919919</v>
+        <v>-0.313927459716794</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08798579317575618</v>
+        <v>0.09855044996423934</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.8</v>
       </c>
       <c r="C34" t="n">
-        <v>36.55116653442383</v>
+        <v>36.5140495300293</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.248833465576169</v>
+        <v>-0.2859504699707003</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0619180935906465</v>
+        <v>0.08176767127646437</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>37.3</v>
       </c>
       <c r="C35" t="n">
-        <v>37.06188583374023</v>
+        <v>37.03384780883789</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2381141662597628</v>
+        <v>-0.2661521911621065</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05669835617358195</v>
+        <v>0.0708369888603905</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>37.8508415222168</v>
+        <v>37.77504348754883</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.04915847778320881</v>
+        <v>-0.1249565124511776</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002416555937962234</v>
+        <v>0.01561413000396129</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>38.5</v>
       </c>
       <c r="C37" t="n">
-        <v>38.3694953918457</v>
+        <v>38.28853225708008</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1305046081542969</v>
+        <v>-0.2114677429199219</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01703145274950657</v>
+        <v>0.04471860629564617</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>39.00495529174805</v>
+        <v>38.94121170043945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1049552917480412</v>
+        <v>0.04121170043944744</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01101561326591644</v>
+        <v>0.001698404253110752</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>39.52904891967773</v>
+        <v>39.48616409301758</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1290489196777287</v>
+        <v>0.08616409301757244</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01665362366998887</v>
+        <v>0.007424250925540876</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>39.70820999145508</v>
+        <v>39.67995071411133</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1917900085449276</v>
+        <v>-0.2200492858886776</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03678340737766338</v>
+        <v>0.04842168822011695</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>39.92831802368164</v>
+        <v>39.90347671508789</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1716819763183537</v>
+        <v>-0.1965232849121037</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02947470099257576</v>
+        <v>0.03862140151264389</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>40.23454666137695</v>
+        <v>40.16543960571289</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3654533386230412</v>
+        <v>-0.4345603942871037</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1335561427107272</v>
+        <v>0.188842736282963</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>40.47024154663086</v>
+        <v>40.41767501831055</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4297584533691463</v>
+        <v>-0.4823249816894588</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1846923282422407</v>
+        <v>0.2326373879617368</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>41.21378707885742</v>
+        <v>41.22414779663086</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01378707885741193</v>
+        <v>0.02414779663084943</v>
       </c>
       <c r="E44" t="n">
-        <v>0.000190083543420495</v>
+        <v>0.000583116082124863</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.5</v>
       </c>
       <c r="C45" t="n">
-        <v>41.2248649597168</v>
+        <v>41.18639373779297</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2751350402832031</v>
+        <v>-0.3136062622070312</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07569929039163981</v>
+        <v>0.09834888769546524</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.8</v>
       </c>
       <c r="C46" t="n">
-        <v>41.653076171875</v>
+        <v>41.60744476318359</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1469238281249972</v>
+        <v>-0.1925552368164034</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0215866112709037</v>
+        <v>0.0370775192254212</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>42.2</v>
       </c>
       <c r="C47" t="n">
-        <v>42.15799331665039</v>
+        <v>42.17150115966797</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.04200668334961222</v>
+        <v>-0.02849884033203409</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001764561446034588</v>
+        <v>0.000812183900270773</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.7</v>
       </c>
       <c r="C48" t="n">
-        <v>43.88340759277344</v>
+        <v>43.95074081420898</v>
       </c>
       <c r="D48" t="n">
-        <v>1.183407592773435</v>
+        <v>1.250740814208982</v>
       </c>
       <c r="E48" t="n">
-        <v>1.400453530633815</v>
+        <v>1.564352584328146</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>43.7</v>
       </c>
       <c r="C49" t="n">
-        <v>44.43407821655273</v>
+        <v>44.51316452026367</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7340782165527386</v>
+        <v>0.8131645202636761</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5388708280172494</v>
+        <v>0.6612365370156545</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>44.2</v>
       </c>
       <c r="C50" t="n">
-        <v>44.31099700927734</v>
+        <v>44.40830993652344</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1109970092773409</v>
+        <v>0.2083099365234347</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0123203360685141</v>
+        <v>0.04339302965439738</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>45.6</v>
       </c>
       <c r="C51" t="n">
-        <v>44.46113967895508</v>
+        <v>44.65983963012695</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.138860321044923</v>
+        <v>-0.9401603698730483</v>
       </c>
       <c r="E51" t="n">
-        <v>1.297002830850546</v>
+        <v>0.883901521079827</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-0.05531524658206166</v>
+        <v>-0.6037504577637023</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>5.604465680149265</v>
+        <v>5.542201127740087</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1120893136029853</v>
+        <v>0.1108440225548017</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_10.xlsx
+++ b/partial/sliding_window_results_window_10.xlsx
@@ -468,13 +468,13 @@
         <v>29.92</v>
       </c>
       <c r="C2" t="n">
-        <v>30.15045815484523</v>
+        <v>30.02419053477981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2304581548452305</v>
+        <v>0.1041905347798036</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05311096113466823</v>
+        <v>0.01085566753770145</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.98</v>
       </c>
       <c r="C3" t="n">
-        <v>29.57760358353954</v>
+        <v>30.02977761739633</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4023964164604585</v>
+        <v>0.04977761739632669</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1619228759802188</v>
+        <v>0.002477811193655085</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.04</v>
       </c>
       <c r="C4" t="n">
-        <v>29.8876133789907</v>
+        <v>30.07035366584773</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.152386621009299</v>
+        <v>0.03035366584772703</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02322168226263173</v>
+        <v>0.0009213450303954703</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.21</v>
       </c>
       <c r="C5" t="n">
-        <v>29.55110988573279</v>
+        <v>30.08315331313932</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6588901142672086</v>
+        <v>-0.1268466868606843</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4341361826790551</v>
+        <v>0.01609008196753251</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.22</v>
       </c>
       <c r="C6" t="n">
-        <v>29.94462543628945</v>
+        <v>30.19825301488454</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2753745637105496</v>
+        <v>-0.02174698511546325</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07583115033877554</v>
+        <v>0.00047293136161218</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.38</v>
       </c>
       <c r="C7" t="n">
-        <v>29.8816698068154</v>
+        <v>30.25568284039331</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4983301931846036</v>
+        <v>-0.1243171596066937</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2483329814394043</v>
+        <v>0.01545475617267614</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.44</v>
       </c>
       <c r="C8" t="n">
-        <v>30.53153397042876</v>
+        <v>30.54227831882804</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09153397042875966</v>
+        <v>0.1022783188280414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008378467742453048</v>
+        <v>0.01046085450229049</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.48</v>
       </c>
       <c r="C9" t="n">
-        <v>30.37329085993156</v>
+        <v>30.5519949621441</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1067091400684426</v>
+        <v>0.07199496214410317</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01138684057414649</v>
+        <v>0.005183274574130849</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.69</v>
       </c>
       <c r="C10" t="n">
-        <v>30.56229443542715</v>
+        <v>30.60082321928214</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1277055645728531</v>
+        <v>-0.08917678071786383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01630871122287115</v>
+        <v>0.007952498219201971</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.75</v>
       </c>
       <c r="C11" t="n">
-        <v>30.40295983610252</v>
+        <v>30.76713189625077</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.347040163897482</v>
+        <v>0.01713189625076694</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1204368753579912</v>
+        <v>0.0002935018691470424</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.94</v>
       </c>
       <c r="C12" t="n">
-        <v>30.6690536612905</v>
+        <v>30.89341029886786</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2709463387094964</v>
+        <v>-0.04658970113214522</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07341191846008112</v>
+        <v>0.002170600251582614</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.95</v>
       </c>
       <c r="C13" t="n">
-        <v>30.87308474573936</v>
+        <v>31.10379906852334</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07691525426064416</v>
+        <v>0.1537990685233375</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00591595633797954</v>
+        <v>0.02365415347864626</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>31.02</v>
       </c>
       <c r="C14" t="n">
-        <v>31.42862978224556</v>
+        <v>31.27142860609367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4086297822455585</v>
+        <v>0.2514286060936683</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1669782989380525</v>
+        <v>0.06321634396220505</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.12</v>
       </c>
       <c r="C15" t="n">
-        <v>31.73932379059798</v>
+        <v>31.33366433097254</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6193237905979778</v>
+        <v>0.2136643309725379</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3835619576006479</v>
+        <v>0.04565244632994222</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.28</v>
       </c>
       <c r="C16" t="n">
-        <v>31.8001027920917</v>
+        <v>31.1674750055018</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5201027920916985</v>
+        <v>-0.1125249944982052</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2705069143415806</v>
+        <v>0.01266187438682111</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.38</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4866341557887</v>
+        <v>30.93389696060447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1066341557887007</v>
+        <v>-0.4461030393955276</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0113708431807689</v>
+        <v>0.1990079217579277</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.58</v>
       </c>
       <c r="C18" t="n">
-        <v>31.84267344671913</v>
+        <v>31.12874365607843</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2626734467191341</v>
+        <v>-0.4512563439215675</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06899733961130976</v>
+        <v>0.2036322879294601</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.65</v>
       </c>
       <c r="C19" t="n">
-        <v>31.82384162411077</v>
+        <v>31.68285551433151</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1738416241107714</v>
+        <v>0.03285551433151213</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03022091027347074</v>
+        <v>0.001079484821988199</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.88</v>
       </c>
       <c r="C20" t="n">
-        <v>32.52588862827167</v>
+        <v>32.54857965831769</v>
       </c>
       <c r="D20" t="n">
-        <v>0.645888628271674</v>
+        <v>0.6685796583176931</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4171721201306647</v>
+        <v>0.4469987595162032</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>32.28</v>
       </c>
       <c r="C21" t="n">
-        <v>32.42675507501861</v>
+        <v>32.55971918219023</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1467550750186106</v>
+        <v>0.2797191821902274</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02153705204371803</v>
+        <v>0.07824282088516962</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.45</v>
       </c>
       <c r="C22" t="n">
-        <v>32.48906773209526</v>
+        <v>32.73532906098168</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03906773209525483</v>
+        <v>0.2853290609816739</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001526287691066604</v>
+        <v>0.08141267304068377</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.85</v>
       </c>
       <c r="C23" t="n">
-        <v>32.68757766467187</v>
+        <v>32.9375852778052</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1624223353281309</v>
+        <v>0.08758527780519643</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0263810150134438</v>
+        <v>0.007671180888213434</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.9</v>
       </c>
       <c r="C24" t="n">
-        <v>32.81789647584993</v>
+        <v>32.99351977061944</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08210352415007094</v>
+        <v>0.09351977061943728</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006740988677861282</v>
+        <v>0.008745947496712165</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>33.1</v>
       </c>
       <c r="C25" t="n">
-        <v>33.14090606419386</v>
+        <v>33.22201537420774</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04090606419386233</v>
+        <v>0.1220153742077414</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001673306087832386</v>
+        <v>0.01488775154305518</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.4</v>
       </c>
       <c r="C26" t="n">
-        <v>33.68519413220316</v>
+        <v>33.51113863081579</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2851941322031664</v>
+        <v>0.1111386308157876</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08133569304311714</v>
+        <v>0.01235179525960793</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.7</v>
       </c>
       <c r="C27" t="n">
-        <v>33.87216588000717</v>
+        <v>33.60283648162176</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1721658800071708</v>
+        <v>-0.09716351837824533</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02964109023864354</v>
+        <v>0.009440749303639617</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>34.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.97085561693148</v>
+        <v>33.71172498514026</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1291443830685211</v>
+        <v>-0.3882750148597438</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01667827167814891</v>
+        <v>0.1507574871643343</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.4</v>
       </c>
       <c r="C29" t="n">
-        <v>34.27075136985163</v>
+        <v>34.29938866808003</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1292486301483677</v>
+        <v>-0.1006113319199713</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01670520839522955</v>
+        <v>0.01012264011071063</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.9</v>
       </c>
       <c r="C30" t="n">
-        <v>34.61143521302103</v>
+        <v>34.59425327533567</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2885647869789665</v>
+        <v>-0.3057467246643242</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0832696362842163</v>
+        <v>0.09348105964296206</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>35.3</v>
       </c>
       <c r="C31" t="n">
-        <v>35.35959892399529</v>
+        <v>35.63727115299272</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05959892399529565</v>
+        <v>0.3372711529927201</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003552031741397028</v>
+        <v>0.1137518306410388</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.7</v>
       </c>
       <c r="C32" t="n">
-        <v>35.79080162479443</v>
+        <v>35.89773605532633</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09080162479442322</v>
+        <v>0.1977360553263239</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008244935065307213</v>
+        <v>0.03909954757601502</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>36.3</v>
       </c>
       <c r="C33" t="n">
-        <v>36.03264968725425</v>
+        <v>36.32664756839336</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2673503127457479</v>
+        <v>0.02664756839336491</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07147618972524923</v>
+        <v>0.0007100929012790603</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.8</v>
       </c>
       <c r="C34" t="n">
-        <v>36.98082208978937</v>
+        <v>36.82917752352359</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1808220897893733</v>
+        <v>0.02917752352359315</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03269662815579618</v>
+        <v>0.0008513278789698317</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>37.3</v>
       </c>
       <c r="C35" t="n">
-        <v>37.03808174720831</v>
+        <v>36.99573242149806</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2619182527916877</v>
+        <v>-0.3042675785019355</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0686011711454504</v>
+        <v>0.0925787593274315</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.9</v>
       </c>
       <c r="C36" t="n">
-        <v>38.01083806580366</v>
+        <v>37.78072258726555</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1108380658036623</v>
+        <v>-0.1192774127344478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01228507683109697</v>
+        <v>0.01422710118862381</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>38.5</v>
       </c>
       <c r="C37" t="n">
-        <v>38.67005654805641</v>
+        <v>38.52270208870895</v>
       </c>
       <c r="D37" t="n">
-        <v>0.170056548056408</v>
+        <v>0.02270208870894663</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02891922953686141</v>
+        <v>0.0005153848317488821</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.9</v>
       </c>
       <c r="C38" t="n">
-        <v>39.12237970160986</v>
+        <v>39.12314879822863</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2223797016098601</v>
+        <v>0.2231487982286282</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04945273168809041</v>
+        <v>0.04979538615088103</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>39.4</v>
       </c>
       <c r="C39" t="n">
-        <v>39.56793608028836</v>
+        <v>39.44146703013038</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1679360802883636</v>
+        <v>0.04146703013037722</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02820252706261971</v>
+        <v>0.001719514587833613</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.9</v>
       </c>
       <c r="C40" t="n">
-        <v>39.85061662806815</v>
+        <v>39.72263802358091</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.04938337193184594</v>
+        <v>-0.1773619764190926</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00243871742335903</v>
+        <v>0.03145727067928675</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>40.1</v>
       </c>
       <c r="C41" t="n">
-        <v>39.99719629544344</v>
+        <v>39.7702638787822</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1028037045565569</v>
+        <v>-0.3297361212177989</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01056860167055183</v>
+        <v>0.108725909635759</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.6</v>
       </c>
       <c r="C42" t="n">
-        <v>40.14740321345568</v>
+        <v>39.90697336106128</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4525967865443263</v>
+        <v>-0.6930266389387256</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2048438511902505</v>
+        <v>0.4802859222787068</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.9</v>
       </c>
       <c r="C43" t="n">
-        <v>40.43717594502318</v>
+        <v>40.19635090321012</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4628240549768208</v>
+        <v>-0.7036490967898743</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2142061058651872</v>
+        <v>0.4951220514132059</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>41.2</v>
       </c>
       <c r="C44" t="n">
-        <v>41.25164687007472</v>
+        <v>41.21758245333769</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05164687007471258</v>
+        <v>0.01758245333768826</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002667399188514242</v>
+        <v>0.0003091426653719852</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.5</v>
       </c>
       <c r="C45" t="n">
-        <v>41.50640795799717</v>
+        <v>41.28955640879663</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006407957997168978</v>
+        <v>-0.2104435912033651</v>
       </c>
       <c r="E45" t="n">
-        <v>4.106192569348186e-05</v>
+        <v>0.04428650507856904</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.8</v>
       </c>
       <c r="C46" t="n">
-        <v>42.16556872913132</v>
+        <v>41.71509244587822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3655687291313257</v>
+        <v>-0.0849075541217772</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1336404957186925</v>
+        <v>0.007209292746942523</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>42.2</v>
       </c>
       <c r="C47" t="n">
-        <v>42.57779146628009</v>
+        <v>42.40166043411897</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3777914662800868</v>
+        <v>0.2016604341189705</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1427263919940579</v>
+        <v>0.04066693068905164</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.7</v>
       </c>
       <c r="C48" t="n">
-        <v>43.73722680448905</v>
+        <v>43.53255751544864</v>
       </c>
       <c r="D48" t="n">
-        <v>1.037226804489052</v>
+        <v>0.8325575154486344</v>
       </c>
       <c r="E48" t="n">
-        <v>1.07583944395057</v>
+        <v>0.6931520165300031</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>43.7</v>
       </c>
       <c r="C49" t="n">
-        <v>44.37882933852995</v>
+        <v>43.95549435339204</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6788293385299511</v>
+        <v>0.255494353392038</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4608092708490109</v>
+        <v>0.06527736461521558</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>44.2</v>
       </c>
       <c r="C50" t="n">
-        <v>43.9873501350492</v>
+        <v>44.25777747149995</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.212649864950798</v>
+        <v>0.05777747149994639</v>
       </c>
       <c r="E50" t="n">
-        <v>0.04521996506359261</v>
+        <v>0.003338236212927117</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>45.6</v>
       </c>
       <c r="C51" t="n">
-        <v>44.27202124572106</v>
+        <v>45.62681281157661</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.327978754278938</v>
+        <v>0.02681281157660464</v>
       </c>
       <c r="E51" t="n">
-        <v>1.76352757181624</v>
+        <v>0.000718926864642504</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.4173962968654372</v>
+        <v>0.01236847578596567</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>7.226650934367638</v>
+        <v>3.819149214691712</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1445330186873527</v>
+        <v>0.07638298429383424</v>
       </c>
     </row>
   </sheetData>
